--- a/islah.xlsx
+++ b/islah.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83AE9B2-8D69-4F2B-A68C-B7BA3B63D0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A473A7-A17E-496E-911A-E67F6E4B904D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="islah" sheetId="6" r:id="rId1"/>
@@ -424,8 +424,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -516,7 +516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>11</v>
       </c>
@@ -537,7 +537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>16</v>
       </c>
@@ -558,7 +558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>21</v>
       </c>
@@ -579,7 +579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>26</v>
       </c>
@@ -600,7 +600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>31</v>
       </c>
